--- a/AP160_TestData_ManageAcctPeriods_21C.xlsx
+++ b/AP160_TestData_ManageAcctPeriods_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F074D-917D-4FD2-9F6F-2B75FDC7471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943E757-E855-4E9C-AE4E-6891EF815D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>US Primary Ledger</t>
@@ -532,54 +523,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="L2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.36328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="9.453125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="47.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="26.7265625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="31.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="9.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="47.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="26.77734375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -634,21 +625,15 @@
         <v>120</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="6"/>
@@ -672,12 +657,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
